--- a/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,102 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r266251818-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>1657895</t>
+  </si>
+  <si>
+    <t>266251818</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>I booked the room through hotels.com and when I checked in the front desk person was extremely rude. He immediately told me I couldn't have any guests as if I was going to have the an epic party. Then when I checked out I put my card on the counter and the clerk snatched it and didn't speak one word. When I called him out on it he told me he wasn't rude and then went on and accused me of having a guest in my room when I didn't. The room was okay but if you're expecting decent customer service you can forget itMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Fort Worth, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>I booked the room through hotels.com and when I checked in the front desk person was extremely rude. He immediately told me I couldn't have any guests as if I was going to have the an epic party. Then when I checked out I put my card on the counter and the clerk snatched it and didn't speak one word. When I called him out on it he told me he wasn't rude and then went on and accused me of having a guest in my room when I didn't. The room was okay but if you're expecting decent customer service you can forget itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r216250919-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>216250919</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Motel 6 Ft Worth South #4566 6600 South Freeway I-35W at Alta Mesa Blvd. Exit #44 Ft Worth TX 7613</t>
+  </si>
+  <si>
+    <t>I made the reservation for my husband and this is his review:Front desk, at different times, very slow to answer inbound phone calls. - WiFi Hell. Very weak signal. Needed 4 codes in 2 days. - Toilet refill tube popped off the overflow tube while I was in The Thinker's position. Having plumbing experience, I fixed it. - Room 149 (my room, downstairs smoking - weak knees, I avoid stairs) is for handicapped. Don't know why it was assigned to me. The shower floor lacks adequate drain slope, so water runs into the toilet area when one showers. I left towels on the floor to absorb the shower water. - My bed sheet had tears in it and a few cigarette burn holes. The blanket had a large tear in it with the 'insulation' showing. I took pictures of the sheet and blanket for reference, need be. - The desk/computer table chair was very 'creaky' and had nails pounded into various joints for attempted 'repair.' The chair's loose joints, and one nail in particular, were just begging for a flesh-wound law suit. I took pictures of the chair for reference, need be. - The motel grounds could be better policed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I made the reservation for my husband and this is his review:Front desk, at different times, very slow to answer inbound phone calls. - WiFi Hell. Very weak signal. Needed 4 codes in 2 days. - Toilet refill tube popped off the overflow tube while I was in The Thinker's position. Having plumbing experience, I fixed it. - Room 149 (my room, downstairs smoking - weak knees, I avoid stairs) is for handicapped. Don't know why it was assigned to me. The shower floor lacks adequate drain slope, so water runs into the toilet area when one showers. I left towels on the floor to absorb the shower water. - My bed sheet had tears in it and a few cigarette burn holes. The blanket had a large tear in it with the 'insulation' showing. I took pictures of the sheet and blanket for reference, need be. - The desk/computer table chair was very 'creaky' and had nails pounded into various joints for attempted 'repair.' The chair's loose joints, and one nail in particular, were just begging for a flesh-wound law suit. I took pictures of the chair for reference, need be. - The motel grounds could be better policed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r154214041-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>154214041</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>I was impressed when I walked in the room. It is no e at first almost upscale however I have stayed at older ones that were much better. The tv reception was bad the remotexidnot work and it was very dark. I had rather stay at a older one</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r64008741-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>64008741</t>
+  </si>
+  <si>
+    <t>05/12/2010</t>
+  </si>
+  <si>
+    <t>Great Time</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in the King suits ,Slept great very comfortable beds and linens nice and stain free floor.  breakfast is adequate coffee,juice waffles muffins ect...</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
 </sst>
 </file>
@@ -648,6 +744,258 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Flyingsolo0226</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I booked the room through hotels.com and when I checked in the front desk person was extremely rude. He immediately told me I couldn't have any guests as if I was going to have the an epic party. Then when I checked out I put my card on the counter and the clerk snatched it and didn't speak one word. When I called him out on it he told me he wasn't rude and then went on and accused me of having a guest in my room when I didn't. The room was okay but if you're expecting decent customer service you can forget itMore</t>
   </si>
   <si>
+    <t>GForister</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r216250919-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I made the reservation for my husband and this is his review:Front desk, at different times, very slow to answer inbound phone calls. - WiFi Hell. Very weak signal. Needed 4 codes in 2 days. - Toilet refill tube popped off the overflow tube while I was in The Thinker's position. Having plumbing experience, I fixed it. - Room 149 (my room, downstairs smoking - weak knees, I avoid stairs) is for handicapped. Don't know why it was assigned to me. The shower floor lacks adequate drain slope, so water runs into the toilet area when one showers. I left towels on the floor to absorb the shower water. - My bed sheet had tears in it and a few cigarette burn holes. The blanket had a large tear in it with the 'insulation' showing. I took pictures of the sheet and blanket for reference, need be. - The desk/computer table chair was very 'creaky' and had nails pounded into various joints for attempted 'repair.' The chair's loose joints, and one nail in particular, were just begging for a flesh-wound law suit. I took pictures of the chair for reference, need be. - The motel grounds could be better policed.More</t>
   </si>
   <si>
+    <t>rentednurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r154214041-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
   </si>
   <si>
     <t>I was impressed when I walked in the room. It is no e at first almost upscale however I have stayed at older ones that were much better. The tv reception was bad the remotexidnot work and it was very dark. I had rather stay at a older one</t>
+  </si>
+  <si>
+    <t>august97</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r64008741-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -748,43 +760,47 @@
       <c r="A2" t="n">
         <v>60706</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -796,56 +812,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60706</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -863,41 +883,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60706</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -926,50 +950,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60706</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -993,7 +1021,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_575.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Flyingsolo0226</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r274012545-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>1657895</t>
+  </si>
+  <si>
+    <t>274012545</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation trip </t>
+  </si>
+  <si>
+    <t>We booked through hotelsone.comWhen we arrived, the motel couldn't access the record but could see it. I called the booking agent and they called the motel agent and gave the lady a number to call to get the room released so we could check in. The lady told us it wasn't her job to call. So after having the booking agent called her again, she called and got our room released. We got into our room and the chairs, curtains, walls, and bed cover were dirty and had stains. We had one towel and there was a dirty rag hanging on the shower. The pillow smelled like sweat and when we asked for more pillows, we were told they didn't have any. I am not satisfied at all with this Motel 6. I have stayed in several and this by far was not up to the standards of what I am use to seeing a motel 6. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Fort Worth, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>We booked through hotelsone.comWhen we arrived, the motel couldn't access the record but could see it. I called the booking agent and they called the motel agent and gave the lady a number to call to get the room released so we could check in. The lady told us it wasn't her job to call. So after having the booking agent called her again, she called and got our room released. We got into our room and the chairs, curtains, walls, and bed cover were dirty and had stains. We had one towel and there was a dirty rag hanging on the shower. The pillow smelled like sweat and when we asked for more pillows, we were told they didn't have any. I am not satisfied at all with this Motel 6. I have stayed in several and this by far was not up to the standards of what I am use to seeing a motel 6. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r271691749-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>271691749</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Roach infested!</t>
+  </si>
+  <si>
+    <t>Unbelievable! My girlfriend and I checked in late and walked in the room and promptly found roaches. I killed 8 of them in 5 minutes and we just couldn't take it anymore and left the motel They wouldn't refund our money. DO NOT STAY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Fort Worth, responded to this reviewResponded May 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2015</t>
+  </si>
+  <si>
+    <t>Unbelievable! My girlfriend and I checked in late and walked in the room and promptly found roaches. I killed 8 of them in 5 minutes and we just couldn't take it anymore and left the motel They wouldn't refund our money. DO NOT STAY!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r266251818-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>1657895</t>
-  </si>
-  <si>
     <t>266251818</t>
   </si>
   <si>
@@ -192,9 +243,6 @@
     <t>I booked the room through hotels.com and when I checked in the front desk person was extremely rude. He immediately told me I couldn't have any guests as if I was going to have the an epic party. Then when I checked out I put my card on the counter and the clerk snatched it and didn't speak one word. When I called him out on it he told me he wasn't rude and then went on and accused me of having a guest in my room when I didn't. The room was okay but if you're expecting decent customer service you can forget itMore</t>
   </si>
   <si>
-    <t>GForister</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r216250919-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,9 +264,6 @@
     <t>I made the reservation for my husband and this is his review:Front desk, at different times, very slow to answer inbound phone calls. - WiFi Hell. Very weak signal. Needed 4 codes in 2 days. - Toilet refill tube popped off the overflow tube while I was in The Thinker's position. Having plumbing experience, I fixed it. - Room 149 (my room, downstairs smoking - weak knees, I avoid stairs) is for handicapped. Don't know why it was assigned to me. The shower floor lacks adequate drain slope, so water runs into the toilet area when one showers. I left towels on the floor to absorb the shower water. - My bed sheet had tears in it and a few cigarette burn holes. The blanket had a large tear in it with the 'insulation' showing. I took pictures of the sheet and blanket for reference, need be. - The desk/computer table chair was very 'creaky' and had nails pounded into various joints for attempted 'repair.' The chair's loose joints, and one nail in particular, were just begging for a flesh-wound law suit. I took pictures of the chair for reference, need be. - The motel grounds could be better policed.More</t>
   </si>
   <si>
-    <t>rentednurse</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r154214041-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,7 +279,34 @@
     <t>I was impressed when I walked in the room. It is no e at first almost upscale however I have stayed at older ones that were much better. The tv reception was bad the remotexidnot work and it was very dark. I had rather stay at a older one</t>
   </si>
   <si>
-    <t>august97</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r132110261-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>132110261</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Very Accomodating</t>
+  </si>
+  <si>
+    <t>We came here after our bad experience at the Microtel Inn across the street.  They allowed us to inspect the room first which I really appreciated.  They offered us a good price which I also appreciated it.  Staff was very friendly.  The decor was ok, a few rips and tears and scuff marks.  The beds were comfortable, the room was clean, and the ceiling height was insane.  It made the room feel huge.  The walls are a bit thin and we were next to an exterior door which slammed shut everytime it was used, but overall the noise level wasn't too bad.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r132086310-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>132086310</t>
+  </si>
+  <si>
+    <t>Booked room for $55 and got charged $75.90</t>
+  </si>
+  <si>
+    <t>This is the most disrespectful, unprofessional and a very rude staff. Not only did they rekey to someone whom did not reserve this room, they also booked THREE different guests to one room in one evening. The walls had holes in them, the phone in the room did not work except on speaker, the couches had ciggarate holes in them and the room was missing the tv remote. THIS MOTEL SHOULD BE SHUT DOWN!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1657895-r64008741-Motel_6_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -253,9 +325,6 @@
   </si>
   <si>
     <t>April 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
 </sst>
 </file>
@@ -760,48 +829,40 @@
       <c r="A2" t="n">
         <v>60706</v>
       </c>
-      <c r="B2" t="n">
-        <v>169403</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -812,208 +873,192 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60706</v>
       </c>
-      <c r="B3" t="n">
-        <v>169404</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60706</v>
       </c>
-      <c r="B4" t="n">
-        <v>169405</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60706</v>
       </c>
-      <c r="B5" t="n">
-        <v>169406</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1021,7 +1066,267 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60706</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
